--- a/mechanical/Fabrication/FoxPlusFabricationTracker.xlsx
+++ b/mechanical/Fabrication/FoxPlusFabricationTracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\fox-plus\mechanical\Fabrication\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92EA0B6F-461C-4FD5-9201-72F1AF634AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D68B1B6B-EA83-4A31-A847-1E87B29B647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="26385" windowHeight="14685" xr2:uid="{A44A8F12-1A95-4FA2-94EE-45B3A05AC1CB}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27420" windowHeight="14685" xr2:uid="{A44A8F12-1A95-4FA2-94EE-45B3A05AC1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Notes / Status</t>
+  </si>
+  <si>
+    <t>Received 11Sept2025</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,16 +162,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -508,7 +508,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,9 +521,9 @@
     <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14" style="7" customWidth="1"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="41.42578125" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -583,10 +583,10 @@
       <c r="G2" s="5">
         <v>45896</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>579.11</v>
       </c>
       <c r="J2" s="5">
@@ -615,14 +615,17 @@
       <c r="G3" s="5">
         <v>45895</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>272.08</v>
       </c>
       <c r="J3" s="5">
         <v>45908</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,10 +650,10 @@
       <c r="G4" s="5">
         <v>45895</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>217.14</v>
       </c>
       <c r="J4" s="5">
